--- a/users.xlsx
+++ b/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ФИО</t>
   </si>
@@ -25,25 +25,40 @@
     <t>Наименование роли</t>
   </si>
   <si>
-    <t>auf</t>
-  </si>
-  <si>
-    <t>2022.11.10</t>
-  </si>
-  <si>
-    <t>543543gr</t>
-  </si>
-  <si>
-    <t>bro</t>
-  </si>
-  <si>
-    <t>samokat</t>
-  </si>
-  <si>
-    <t>hffdhhdh</t>
-  </si>
-  <si>
-    <t>fefefefe</t>
+    <t>rerer</t>
+  </si>
+  <si>
+    <t>1966.11.30</t>
+  </si>
+  <si>
+    <t>Дворник</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>1969.01.15</t>
+  </si>
+  <si>
+    <t>Грузчик</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>1960.12.11</t>
+  </si>
+  <si>
+    <t>anime</t>
+  </si>
+  <si>
+    <t>1969.04.20</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>1997.06.25</t>
   </si>
 </sst>
 </file>
@@ -380,6 +395,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="30.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -408,18 +426,18 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -427,21 +445,21 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>

--- a/users.xlsx
+++ b/users.xlsx
@@ -25,40 +25,40 @@
     <t>Наименование роли</t>
   </si>
   <si>
-    <t>rerer</t>
-  </si>
-  <si>
-    <t>1966.11.30</t>
+    <t>rtyuio</t>
+  </si>
+  <si>
+    <t>1997.12.20</t>
   </si>
   <si>
     <t>Дворник</t>
   </si>
   <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>1969.01.15</t>
+    <t>da ppoo</t>
+  </si>
+  <si>
+    <t>1982.02.06</t>
   </si>
   <si>
     <t>Грузчик</t>
   </si>
   <si>
-    <t>try</t>
-  </si>
-  <si>
-    <t>1960.12.11</t>
-  </si>
-  <si>
-    <t>anime</t>
-  </si>
-  <si>
-    <t>1969.04.20</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>1997.06.25</t>
+    <t>terrtt</t>
+  </si>
+  <si>
+    <t>1991.11.02</t>
+  </si>
+  <si>
+    <t>yrturut</t>
+  </si>
+  <si>
+    <t>1966.05.28</t>
+  </si>
+  <si>
+    <t>rteertert</t>
+  </si>
+  <si>
+    <t>1996.06.02</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -462,7 +462,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
